--- a/data_extraction/test.xlsx
+++ b/data_extraction/test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\DATAVOT.47\VOTES.22\Mar2022\online\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -14,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
-  <si>
-    <t>Номер (1) РЕГИСТРАЦИЯ проведена на 28-01-2022 09:04</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
+  <si>
+    <t>Номер (1) РЕГИСТРАЦИЯ проведена на 01-03-2022 11:07</t>
   </si>
   <si>
     <t>ПГ</t>
@@ -53,6 +58,33 @@
   </si>
   <si>
     <t>ВЪЗРАЖДАНЕ</t>
+  </si>
+  <si>
+    <t>Номер (2) ГЛАСУВАНЕ проведено на 01-03-2022 11:43 по тема Процедура за допускане в зала</t>
+  </si>
+  <si>
+    <t>За</t>
+  </si>
+  <si>
+    <t>Против</t>
+  </si>
+  <si>
+    <t>Въздържали се</t>
+  </si>
+  <si>
+    <t>Гласували</t>
+  </si>
+  <si>
+    <t>Номер (3) ГЛАСУВАНЕ проведено на 01-03-2022 11:52 по тема Процедура за пряко предаване по БНТ2 и БНР</t>
+  </si>
+  <si>
+    <t>Номер (4) ГЛАСУВАНЕ проведено на 01-03-2022 11:53 по тема Процедура за пряко предаване по БНТ2 и БНР - прегласуване</t>
+  </si>
+  <si>
+    <t>Номер (5) ГЛАСУВАНЕ проведено на 01-03-2022 14:25 по тема Решение за персонални промени в Министерския съвет на Република България - процедура от Любен Дилов за разделно гласуване на точките</t>
+  </si>
+  <si>
+    <t>Номер (6) ГЛАСУВАНЕ проведено на 01-03-2022 14:27 по тема Решение за персонални промени в Министерския съвет на Република България - освобождава Стефан Янев и избира Драгомир Заков</t>
   </si>
   <si>
     <t xml:space="preserve">Регистрации и гласувания по ПГ + онлайн- На основание РЕШЕНИЕ на НС от 10.12.2021 г. за приемане на Правила за дистанционно участие в заседанията на Народното събрание на народни представители, поставени под задължителна изолация или карантина поради COVID-19 
@@ -63,14 +95,23 @@
     <t>2 онлайн</t>
   </si>
   <si>
-    <t>1 онлайн</t>
+    <t>Народни представители участвали онлайн:</t>
+  </si>
+  <si>
+    <t>ВЛАДИМИР СЛАВЕВ ТАБУТОВ</t>
+  </si>
+  <si>
+    <t>ИСКРЕН НИКОЛАЕВ МИТЕВ</t>
+  </si>
+  <si>
+    <t>ЦВЕТЕЛИНА КАЛИНОВА СИМЕОНОВА-ЗАРКИН</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -99,6 +140,26 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -120,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -167,11 +228,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -194,8 +264,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -213,6 +286,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -291,6 +370,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -338,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,7 +455,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -582,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,24 +678,24 @@
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+    <row r="1" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -628,71 +710,71 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C4" s="3">
         <v>240</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="4">
+        <v>213</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6">
         <v>67</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="6">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C6" s="6">
         <v>59</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="E6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="6">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6">
         <v>34</v>
@@ -700,17 +782,17 @@
       <c r="D7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="6">
         <v>26</v>
@@ -718,17 +800,17 @@
       <c r="D8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6">
         <v>25</v>
@@ -736,17 +818,17 @@
       <c r="D9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6">
         <v>16</v>
@@ -754,17 +836,17 @@
       <c r="D10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6">
         <v>13</v>
@@ -772,15 +854,953 @@
       <c r="D11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>201</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14">
+        <v>204</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6">
+        <v>64</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>64</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>38</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
+        <v>26</v>
+      </c>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>24</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6">
+        <v>25</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>25</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>15</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="6">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15">
+        <v>12</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3">
+        <v>110</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>113</v>
+      </c>
+      <c r="E24" s="14">
+        <v>224</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9">
+        <v>63</v>
+      </c>
+      <c r="E25" s="15">
+        <v>66</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="6">
+        <v>52</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>52</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="6">
+        <v>30</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
+        <v>30</v>
+      </c>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>23</v>
+      </c>
+      <c r="E28" s="15">
+        <v>23</v>
+      </c>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="6">
+        <v>13</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <v>12</v>
+      </c>
+      <c r="E29" s="15">
+        <v>25</v>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>15</v>
+      </c>
+      <c r="E30" s="15">
+        <v>15</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="6">
+        <v>13</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="15">
+        <v>13</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3">
+        <v>101</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="8">
+        <v>123</v>
+      </c>
+      <c r="E34" s="14">
+        <v>226</v>
+      </c>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9">
+        <v>64</v>
+      </c>
+      <c r="E35" s="15">
+        <v>66</v>
+      </c>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="6">
+        <v>55</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="15">
+        <v>55</v>
+      </c>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="6">
+        <v>33</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="15">
+        <v>33</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="9">
+        <v>20</v>
+      </c>
+      <c r="E38" s="15">
+        <v>21</v>
+      </c>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="9">
+        <v>24</v>
+      </c>
+      <c r="E39" s="15">
+        <v>24</v>
+      </c>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="9">
+        <v>15</v>
+      </c>
+      <c r="E40" s="15">
+        <v>15</v>
+      </c>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="6">
+        <v>12</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0</v>
+      </c>
+      <c r="E41" s="15">
+        <v>12</v>
+      </c>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3">
+        <v>99</v>
+      </c>
+      <c r="C44" s="3">
+        <v>124</v>
+      </c>
+      <c r="D44" s="8">
+        <v>4</v>
+      </c>
+      <c r="E44" s="14">
+        <v>227</v>
+      </c>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="6">
+        <v>0</v>
+      </c>
+      <c r="C45" s="6">
+        <v>65</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="15">
+        <v>65</v>
+      </c>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="6">
+        <v>55</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0</v>
+      </c>
+      <c r="E46" s="15">
+        <v>55</v>
+      </c>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="6">
+        <v>31</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="9">
+        <v>1</v>
+      </c>
+      <c r="E47" s="15">
+        <v>32</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="6">
+        <v>0</v>
+      </c>
+      <c r="C48" s="6">
+        <v>23</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0</v>
+      </c>
+      <c r="E48" s="15">
+        <v>23</v>
+      </c>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0</v>
+      </c>
+      <c r="C49" s="6">
+        <v>22</v>
+      </c>
+      <c r="D49" s="9">
+        <v>2</v>
+      </c>
+      <c r="E49" s="15">
+        <v>24</v>
+      </c>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="6">
+        <v>0</v>
+      </c>
+      <c r="C50" s="6">
+        <v>14</v>
+      </c>
+      <c r="D50" s="9">
+        <v>1</v>
+      </c>
+      <c r="E50" s="15">
+        <v>15</v>
+      </c>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="6">
+        <v>13</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0</v>
+      </c>
+      <c r="E51" s="15">
+        <v>13</v>
+      </c>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="3">
+        <v>184</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="8">
+        <v>33</v>
+      </c>
+      <c r="E54" s="14">
+        <v>217</v>
+      </c>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="6">
+        <v>65</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0</v>
+      </c>
+      <c r="E55" s="15">
+        <v>65</v>
+      </c>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="6">
+        <v>55</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0</v>
+      </c>
+      <c r="E56" s="15">
+        <v>55</v>
+      </c>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="6">
+        <v>0</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="9">
+        <v>33</v>
+      </c>
+      <c r="E57" s="15">
+        <v>33</v>
+      </c>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="6">
+        <v>24</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0</v>
+      </c>
+      <c r="E58" s="15">
+        <v>24</v>
+      </c>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="6">
+        <v>25</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0</v>
+      </c>
+      <c r="E59" s="15">
+        <v>25</v>
+      </c>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="6">
+        <v>15</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0</v>
+      </c>
+      <c r="D60" s="9">
+        <v>0</v>
+      </c>
+      <c r="E60" s="15">
+        <v>15</v>
+      </c>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="6">
+        <v>0</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0</v>
+      </c>
+      <c r="E61" s="15">
+        <v>0</v>
+      </c>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="63" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="61">
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
@@ -793,7 +1813,10 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0.196850393700787" top="0.59055118110236204" bottom="0.59055118110236204" header="0.59055118110236204" footer="0.59055118110236204"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="31" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>